--- a/Assets/StreamingAssets/9_Kong.xlsx
+++ b/Assets/StreamingAssets/9_Kong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD4BBE-9119-794A-BEF7-F96793900B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6F114-3A2D-4C4C-8FD2-F840E76A4EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="880" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was not particularly close to the Lord—we only met twice in total.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The first time was during my initial visit to Qingliu Manor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After lunch, I remained in my room, meditating, until Steward He came to inform me of the banquet’s time and location.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At around the first quarter of You hour, I left my room just before the rain began and happened to run into Ming on the way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The two of us proceeded to the banquet hall together.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +189,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>So, Kong was also someone who arrived early at the banquet and stayed the entire time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If that’s the case, it seems he didn’t have the opportunity to commit the crime.</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So, Kong was also someone who arrived early at the banquet and stayed the entire time.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If that’s the case, it seems he didn’t have the opportunity to commit the crime.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was not particularly close to the Lord——we only met twice in total.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After lunch, I remained in my room, meditating, until Butler He came to inform me of the banquet’s time and location.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At around 6.15 PM, I left my room just before the rain began and happened to run into Ming on the way.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +605,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -744,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -825,12 +825,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="51">
+    <row r="9" spans="1:16" ht="34">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -850,7 +850,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -885,9 +885,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="34">
+    <row r="12" spans="1:16" ht="51">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="13" spans="1:16" ht="34">
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
